--- a/templates/NHWA_Module_7.xlsx
+++ b/templates/NHWA_Module_7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\EST\Excel_Data_Importer\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACB4E164-382A-4817-A9CF-641E34E9499D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644183BA-0819-4FB5-853E-89D08D822CD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="w6U6L0oAe3JJA59tHtarEV89NpD3W2+RkrpCLpSky0mah3WxgT5zGiZyUg4WqiEAxmmZBm6plpvj46rywraaLA==" workbookSaltValue="p57C/QL86ueJeh1bq5eaXQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" tabRatio="391" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -2748,18 +2748,18 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -3317,16 +3317,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:31" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -3357,16 +3357,16 @@
       </c>
     </row>
     <row r="2" spans="2:31" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="41" t="s">
         <v>767</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -3561,8 +3561,8 @@
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
       <c r="Y6" s="3" t="s">
         <v>15</v>
       </c>
@@ -3902,13 +3902,13 @@
       <c r="C14" s="39" t="s">
         <v>764</v>
       </c>
-      <c r="D14" s="40" t="s">
+      <c r="D14" s="38" t="s">
         <v>770</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="38" t="s">
         <v>771</v>
       </c>
-      <c r="F14" s="40" t="s">
+      <c r="F14" s="38" t="s">
         <v>772</v>
       </c>
       <c r="G14" s="15"/>
@@ -3949,9 +3949,9 @@
     <row r="15" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
@@ -4073,13 +4073,13 @@
       <c r="C18" s="39" t="s">
         <v>764</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="D18" s="38" t="s">
         <v>776</v>
       </c>
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="38" t="s">
         <v>786</v>
       </c>
-      <c r="F18" s="40" t="s">
+      <c r="F18" s="38" t="s">
         <v>772</v>
       </c>
       <c r="G18" s="15"/>
@@ -4113,9 +4113,9 @@
     <row r="19" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
       <c r="G19" s="15"/>
       <c r="Y19" s="3" t="s">
         <v>24</v>
@@ -4217,16 +4217,16 @@
       <c r="C22" s="39" t="s">
         <v>764</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="D22" s="38" t="s">
         <v>788</v>
       </c>
-      <c r="E22" s="40" t="s">
+      <c r="E22" s="38" t="s">
         <v>774</v>
       </c>
-      <c r="F22" s="40" t="s">
+      <c r="F22" s="38" t="s">
         <v>775</v>
       </c>
-      <c r="G22" s="40" t="s">
+      <c r="G22" s="38" t="s">
         <v>765</v>
       </c>
       <c r="Y22" s="3" t="s">
@@ -4257,10 +4257,10 @@
     <row r="23" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
       <c r="Y23" s="3" t="s">
         <v>28</v>
       </c>
@@ -10233,17 +10233,13 @@
     <protectedRange sqref="D16:D17 E17:G17 G14:G16 E16:F16 F20 D8:G13 D24:G24 G18:G19 D20:E21 F21:G21" name="Range1_1"/>
   </protectedRanges>
   <mergeCells count="25">
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
@@ -10251,13 +10247,17 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24:G24 D20:F20 D16:F16 D12:F12 D8" xr:uid="{5F4DADF7-F108-464E-9154-3112A7401E2D}">
@@ -10327,32 +10327,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="2:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="41" t="s">
         <v>767</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -10561,7 +10561,7 @@
       <c r="I16" s="35"/>
     </row>
     <row r="17" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="39" t="s">
         <v>9</v>
       </c>
@@ -10575,13 +10575,19 @@
         <v>789</v>
       </c>
       <c r="F18" s="39"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+    </row>
+    <row r="19" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
       <c r="D19" s="39"/>
       <c r="E19" s="39"/>
       <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
       <c r="N19" s="11">
         <v>1</v>
       </c>
@@ -10600,17 +10606,18 @@
       <c r="D20" s="20"/>
       <c r="E20" s="42"/>
       <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="HkqJorL6yn+kErhue9p8DftEBKWVQiqcyk6Ay8VsigeWCDPkKLeBU5K9/r3b8Xpmj/U7HdMD9LJLQE4IeioDEg==" saltValue="2YI1uCQPwD9kjzTjx2+I8g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="TbEEyb7UFTF/HQPN3kRBPG4sYtEV/dub4YGzIad8QwR8axpli+Y9K48SNHGRUBAR+ReR2J0HCdu+vxoy9OwP6w==" saltValue="9UNgL5ts/0WPK1FNlLG1cw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="D20" name="Range1_1"/>
   </protectedRanges>
   <mergeCells count="11">
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B2:I2"/>
-    <mergeCell ref="E18:F19"/>
-    <mergeCell ref="E20:F20"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="D7:F8"/>
@@ -10618,6 +10625,8 @@
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:I19"/>
+    <mergeCell ref="E20:I20"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:I16" xr:uid="{580C84A7-724C-41A8-BC3C-1E615B3DFFCC}">

--- a/templates/NHWA_Module_7.xlsx
+++ b/templates/NHWA_Module_7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\EST\Excel_Data_Importer\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644183BA-0819-4FB5-853E-89D08D822CD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE8B329-BD09-40B6-B4CA-2780F2656E4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="w6U6L0oAe3JJA59tHtarEV89NpD3W2+RkrpCLpSky0mah3WxgT5zGiZyUg4WqiEAxmmZBm6plpvj46rywraaLA==" workbookSaltValue="p57C/QL86ueJeh1bq5eaXQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" tabRatio="391" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -2761,10 +2761,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2794,6 +2790,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -10305,7 +10305,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B1:O20"/>
+  <dimension ref="B1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
@@ -10318,11 +10318,10 @@
     <col min="3" max="3" width="53.42578125" style="3" customWidth="1"/>
     <col min="4" max="9" width="15.7109375" style="3" customWidth="1"/>
     <col min="10" max="10" width="10" style="3" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" style="3" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="9.85546875" style="3" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="8.85546875" style="3" hidden="1" customWidth="1"/>
-    <col min="14" max="15" width="9.140625" style="3" hidden="1" customWidth="1"/>
-    <col min="16" max="20" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="14" max="20" width="9.140625" style="3" hidden="1" customWidth="1"/>
     <col min="21" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -10413,36 +10412,36 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="42" t="s">
         <v>790</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="45" t="s">
         <v>777</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="52" t="s">
+      <c r="E7" s="46"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="51" t="s">
         <v>791</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
     </row>
     <row r="8" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
     </row>
     <row r="9" spans="2:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
       <c r="D9" s="33" t="s">
         <v>782</v>
       </c>
@@ -10560,8 +10559,8 @@
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
     </row>
-    <row r="17" spans="2:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="39" t="s">
         <v>9</v>
       </c>
@@ -10579,7 +10578,7 @@
       <c r="H18" s="39"/>
       <c r="I18" s="39"/>
     </row>
-    <row r="19" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
       <c r="D19" s="39"/>
@@ -10591,27 +10590,27 @@
       <c r="N19" s="11">
         <v>1</v>
       </c>
-      <c r="O19" s="3" t="str">
+    </row>
+    <row r="20" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B20" s="16">
+        <v>1</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>778</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="N20" s="3" t="str">
         <f>IF(N19=2,"true",IF(N19=3,"false",""))</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B20" s="16">
-        <v>1</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>778</v>
-      </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="TbEEyb7UFTF/HQPN3kRBPG4sYtEV/dub4YGzIad8QwR8axpli+Y9K48SNHGRUBAR+ReR2J0HCdu+vxoy9OwP6w==" saltValue="9UNgL5ts/0WPK1FNlLG1cw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="05Rm/4WzXZZgAOc1yBS2U2YJhWTgszzRDoqQdYLZUmppPeOE3bXYM6vvyKPG2aqq0mIlP8WluvOAgEvWMk0YPQ==" saltValue="5kq9V1BZsF8eqmgsiBtG6w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="D20" name="Range1_1"/>
   </protectedRanges>

--- a/templates/NHWA_Module_7.xlsx
+++ b/templates/NHWA_Module_7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\EST\Excel_Data_Importer\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE8B329-BD09-40B6-B4CA-2780F2656E4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1500EE6F-721F-4EDB-975C-7D7D7154A017}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="w6U6L0oAe3JJA59tHtarEV89NpD3W2+RkrpCLpSky0mah3WxgT5zGiZyUg4WqiEAxmmZBm6plpvj46rywraaLA==" workbookSaltValue="p57C/QL86ueJeh1bq5eaXQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" tabRatio="391" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -2668,9 +2668,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="9" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -2689,9 +2686,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2739,27 +2733,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2791,8 +2777,24 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -3317,16 +3319,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:31" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -3338,7 +3340,7 @@
       <c r="R1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="8" t="s">
         <v>766</v>
       </c>
       <c r="W1" s="1"/>
@@ -3357,16 +3359,16 @@
       </c>
     </row>
     <row r="2" spans="2:31" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="34" t="s">
         <v>767</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -3378,7 +3380,7 @@
       <c r="R2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
-      <c r="V2" s="10" t="e">
+      <c r="V2" s="9" t="e">
         <f>VLOOKUP(V1,Y2:AB250,2,0)</f>
         <v>#N/A</v>
       </c>
@@ -3410,29 +3412,29 @@
       </c>
     </row>
     <row r="3" spans="2:31" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
       <c r="Y3" s="3" t="s">
         <v>11</v>
       </c>
@@ -3459,20 +3461,20 @@
       </c>
     </row>
     <row r="4" spans="2:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="34" t="str">
+      <c r="E4" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="32" t="str">
         <f>IFERROR(VLOOKUP(V1,Y2:AB249,4,0),"")</f>
         <v/>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="30"/>
+      <c r="I4" s="28"/>
       <c r="Y4" s="3" t="s">
         <v>12</v>
       </c>
@@ -3499,8 +3501,8 @@
       </c>
     </row>
     <row r="5" spans="2:31" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -3542,27 +3544,27 @@
       </c>
     </row>
     <row r="6" spans="2:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="35" t="s">
         <v>764</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="35" t="s">
         <v>780</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
       <c r="Y6" s="3" t="s">
         <v>15</v>
       </c>
@@ -3589,21 +3591,21 @@
       </c>
     </row>
     <row r="7" spans="2:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
       <c r="Y7" s="3" t="s">
         <v>16</v>
       </c>
@@ -3630,25 +3632,25 @@
       </c>
     </row>
     <row r="8" spans="2:31" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="16">
-        <v>1</v>
-      </c>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="15">
+        <v>1</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>781</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
       <c r="Y8" s="3" t="s">
         <v>210</v>
       </c>
@@ -3675,21 +3677,21 @@
       </c>
     </row>
     <row r="9" spans="2:31" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="31"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
       <c r="Y9" s="3" t="s">
         <v>17</v>
       </c>
@@ -3716,27 +3718,27 @@
       </c>
     </row>
     <row r="10" spans="2:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="35" t="s">
         <v>764</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="35" t="s">
         <v>768</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
       <c r="Y10" s="3" t="s">
         <v>18</v>
       </c>
@@ -3763,27 +3765,27 @@
       </c>
     </row>
     <row r="11" spans="2:31" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="24" t="s">
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="22" t="s">
         <v>782</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="23" t="s">
         <v>783</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="23" t="s">
         <v>784</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
       <c r="Y11" s="3" t="s">
         <v>19</v>
       </c>
@@ -3810,25 +3812,25 @@
       </c>
     </row>
     <row r="12" spans="2:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="16">
-        <v>1</v>
-      </c>
-      <c r="C12" s="19" t="s">
+      <c r="B12" s="15">
+        <v>1</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>785</v>
       </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
       <c r="Y12" s="3" t="s">
         <v>219</v>
       </c>
@@ -3855,21 +3857,21 @@
       </c>
     </row>
     <row r="13" spans="2:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="18"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
       <c r="Y13" s="3" t="s">
         <v>222</v>
       </c>
@@ -3896,31 +3898,31 @@
       </c>
     </row>
     <row r="14" spans="2:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="35" t="s">
         <v>764</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="36" t="s">
         <v>770</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="36" t="s">
         <v>771</v>
       </c>
-      <c r="F14" s="38" t="s">
+      <c r="F14" s="36" t="s">
         <v>772</v>
       </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
       <c r="Y14" s="3" t="s">
         <v>225</v>
       </c>
@@ -3947,21 +3949,21 @@
       </c>
     </row>
     <row r="15" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
       <c r="Y15" s="3" t="s">
         <v>20</v>
       </c>
@@ -3988,25 +3990,25 @@
       </c>
     </row>
     <row r="16" spans="2:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="16">
-        <v>1</v>
-      </c>
-      <c r="C16" s="19" t="s">
+      <c r="B16" s="15">
+        <v>1</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>769</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
       <c r="Y16" s="3" t="s">
         <v>21</v>
       </c>
@@ -4033,14 +4035,14 @@
       </c>
     </row>
     <row r="17" spans="2:31" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="18"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
       <c r="Y17" s="3" t="s">
         <v>22</v>
       </c>
@@ -4067,24 +4069,24 @@
       </c>
     </row>
     <row r="18" spans="2:31" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="35" t="s">
         <v>764</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="36" t="s">
         <v>776</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="36" t="s">
         <v>786</v>
       </c>
-      <c r="F18" s="38" t="s">
+      <c r="F18" s="36" t="s">
         <v>772</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
       <c r="Y18" s="3" t="s">
         <v>23</v>
       </c>
@@ -4111,12 +4113,12 @@
       </c>
     </row>
     <row r="19" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="15"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="14"/>
       <c r="Y19" s="3" t="s">
         <v>24</v>
       </c>
@@ -4143,16 +4145,16 @@
       </c>
     </row>
     <row r="20" spans="2:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="16">
-        <v>1</v>
-      </c>
-      <c r="C20" s="19" t="s">
+      <c r="B20" s="15">
+        <v>1</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>787</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="15"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="14"/>
       <c r="Y20" s="3" t="s">
         <v>25</v>
       </c>
@@ -4179,12 +4181,12 @@
       </c>
     </row>
     <row r="21" spans="2:31" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="31"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
       <c r="Y21" s="3" t="s">
         <v>26</v>
       </c>
@@ -4211,22 +4213,22 @@
       </c>
     </row>
     <row r="22" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="35" t="s">
         <v>764</v>
       </c>
-      <c r="D22" s="38" t="s">
+      <c r="D22" s="36" t="s">
         <v>788</v>
       </c>
-      <c r="E22" s="38" t="s">
+      <c r="E22" s="36" t="s">
         <v>774</v>
       </c>
-      <c r="F22" s="38" t="s">
+      <c r="F22" s="36" t="s">
         <v>775</v>
       </c>
-      <c r="G22" s="38" t="s">
+      <c r="G22" s="36" t="s">
         <v>765</v>
       </c>
       <c r="Y22" s="3" t="s">
@@ -4255,12 +4257,12 @@
       </c>
     </row>
     <row r="23" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
       <c r="Y23" s="3" t="s">
         <v>28</v>
       </c>
@@ -4287,16 +4289,16 @@
       </c>
     </row>
     <row r="24" spans="2:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="16">
-        <v>1</v>
-      </c>
-      <c r="C24" s="19" t="s">
+      <c r="B24" s="15">
+        <v>1</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>773</v>
       </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
       <c r="Y24" s="3" t="s">
         <v>29</v>
       </c>
@@ -10227,12 +10229,30 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0WH+cE0QO16zUpl5bjG35traHn428TXMlN88XzysFbTQJvDvnNWMuToGL7apH/evbkOWy2dH/w/YDd8UH4/KOg==" saltValue="hWwgODrGADU1Sxih4zHDhQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="69M1bBm/piaHRWSMJmAJOCKEqZjOgrmbcQd4ubZ9d582YjyUZUUIGJEA40DJW43M+5akkJ0kdOA/mtPC/C4i/A==" saltValue="GmV/Rxk7tnYXoUoor/5E5A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="I4 Q8:R16 H8:P10 H14:P14 H11:P13 H15:P15" name="Range1"/>
     <protectedRange sqref="D16:D17 E17:G17 G14:G16 E16:F16 F20 D8:G13 D24:G24 G18:G19 D20:E21 F21:G21" name="Range1_1"/>
   </protectedRanges>
   <mergeCells count="25">
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:F10"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B14:B15"/>
@@ -10240,24 +10260,6 @@
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24:G24 D20:F20 D16:F16 D12:F12 D8" xr:uid="{5F4DADF7-F108-464E-9154-3112A7401E2D}">
@@ -10326,32 +10328,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" spans="2:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="34" t="s">
         <v>767</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -10362,38 +10364,38 @@
       </c>
     </row>
     <row r="3" spans="2:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="34" t="str">
+      <c r="C4" s="32" t="str">
         <f>Expenditure!V1</f>
         <v/>
       </c>
-      <c r="E4" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="34" t="str">
+      <c r="E4" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="32" t="str">
         <f>Expenditure!F4</f>
         <v/>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4" s="32">
         <f>Expenditure!I4</f>
         <v>0</v>
       </c>
@@ -10412,52 +10414,52 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="38" t="s">
         <v>790</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="41" t="s">
         <v>777</v>
       </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="51" t="s">
+      <c r="E7" s="42"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="47" t="s">
         <v>791</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
     </row>
     <row r="8" spans="2:14" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
     </row>
     <row r="9" spans="2:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="33" t="s">
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="31" t="s">
         <v>782</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="31" t="s">
         <v>783</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="F9" s="31" t="s">
         <v>784</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="25" t="s">
         <v>792</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="25" t="s">
         <v>793</v>
       </c>
-      <c r="I9" s="27" t="s">
+      <c r="I9" s="25" t="s">
         <v>794</v>
       </c>
     </row>
@@ -10468,12 +10470,12 @@
       <c r="C10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
@@ -10482,12 +10484,12 @@
       <c r="C11" s="6" t="s">
         <v>795</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
@@ -10496,12 +10498,12 @@
       <c r="C12" s="6" t="s">
         <v>796</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
@@ -10510,12 +10512,12 @@
       <c r="C13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
@@ -10524,12 +10526,12 @@
       <c r="C14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
@@ -10538,12 +10540,12 @@
       <c r="C15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
@@ -10552,80 +10554,80 @@
       <c r="C16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
     </row>
     <row r="17" spans="2:14" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="35" t="s">
         <v>764</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="35" t="s">
         <v>779</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="E18" s="35" t="s">
         <v>789</v>
       </c>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
     </row>
     <row r="19" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="N19" s="11">
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="N19" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B20" s="16">
-        <v>1</v>
-      </c>
-      <c r="C20" s="19" t="s">
+      <c r="B20" s="15">
+        <v>1</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>778</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
       <c r="N20" s="3" t="str">
         <f>IF(N19=2,"true",IF(N19=3,"false",""))</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="05Rm/4WzXZZgAOc1yBS2U2YJhWTgszzRDoqQdYLZUmppPeOE3bXYM6vvyKPG2aqq0mIlP8WluvOAgEvWMk0YPQ==" saltValue="5kq9V1BZsF8eqmgsiBtG6w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="bOz8UpewaRYd0bhNeeoNvxrV/8uj/UMhwS0bXt84ycXhITDfkELK5XHxs11GALKCzBJZds9M3CiH7tbuqSwOJQ==" saltValue="AW1blnOEel3aaeCGZ+qoCw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="D20" name="Range1_1"/>
   </protectedRanges>
   <mergeCells count="11">
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:I19"/>
+    <mergeCell ref="E20:I20"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="D7:F8"/>
     <mergeCell ref="G7:I8"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:I19"/>
-    <mergeCell ref="E20:I20"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:I16" xr:uid="{580C84A7-724C-41A8-BC3C-1E615B3DFFCC}">
